--- a/biology/Virologie/Coronavirus_du_hérisson_1/Coronavirus_du_hérisson_1.xlsx
+++ b/biology/Virologie/Coronavirus_du_hérisson_1/Coronavirus_du_hérisson_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coronavirus_du_h%C3%A9risson_1</t>
+          <t>Coronavirus_du_hérisson_1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coronavirus de hérisson 1 (EriCoV 1) (en anglais Hedgehog coronavirus 1, HedCoV1)  est une espèce de Bétacoronavirus du groupe C (Merbecovirus). C'est un virus à ARN monocaténaire de polarité positive, découvert chez des hérissons d'Europe (Erinaceus europaeus) d'Allemagne et décrit pour la première fois en 2014[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coronavirus de hérisson 1 (EriCoV 1) (en anglais Hedgehog coronavirus 1, HedCoV1)  est une espèce de Bétacoronavirus du groupe C (Merbecovirus). C'est un virus à ARN monocaténaire de polarité positive, découvert chez des hérissons d'Europe (Erinaceus europaeus) d'Allemagne et décrit pour la première fois en 2014.
 La plupart des Merbecovirus infectent des chauves-souris, mais celui-ci touche une espèce de l'ordre des Eulipotyphla, dont la position  phylogénétique est proche de celle des chauves-souris. C'est ce qui a incité les scientifiques à rechercher des coronavirus dans leurs excréments. Le virus a été localisé aux concentrations les plus élevées dans leur tractus gastro-intestinal inférieur.
 </t>
         </is>
